--- a/biology/Biochimie/Réducteur_(chimie)/Réducteur_(chimie).xlsx
+++ b/biology/Biochimie/Réducteur_(chimie)/Réducteur_(chimie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9ducteur_(chimie)</t>
+          <t>Réducteur_(chimie)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En chimie, un réducteur est un corps simple, un composé ou un ion qui cède au moins un électron à une autre espèce chimique lors d'une réaction d'oxydoréduction[1]. Le réducteur ayant perdu au moins un électron au cours de cette réaction est dit oxydé, tandis que l'espèce chimique qui a reçu au moins un électron est dite réduite[2]. Un réducteur est généralement proche de son état d'oxydation le plus faible — historiquement, la réduction correspondait à l'élimination de l'oxygène d'une substance — et se comporte par conséquent comme un donneur d'électron. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En chimie, un réducteur est un corps simple, un composé ou un ion qui cède au moins un électron à une autre espèce chimique lors d'une réaction d'oxydoréduction. Le réducteur ayant perdu au moins un électron au cours de cette réaction est dit oxydé, tandis que l'espèce chimique qui a reçu au moins un électron est dite réduite. Un réducteur est généralement proche de son état d'oxydation le plus faible — historiquement, la réduction correspondait à l'élimination de l'oxygène d'une substance — et se comporte par conséquent comme un donneur d'électron. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9ducteur_(chimie)</t>
+          <t>Réducteur_(chimie)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les substances suivantes sont des exemples de réducteurs :
 les non-métaux tels que l'hydrogène et le carbone ;
